--- a/dataFiles/test/bateau/bateau_4_MIL.xlsx
+++ b/dataFiles/test/bateau/bateau_4_MIL.xlsx
@@ -136,25 +136,25 @@
     <t>(1104, 340, 55, 110)</t>
   </si>
   <si>
-    <t>(61, 116, 103)</t>
-  </si>
-  <si>
-    <t>(215, 55, 41)</t>
-  </si>
-  <si>
-    <t>(226, 79, 83)</t>
-  </si>
-  <si>
-    <t>(154, 171, 221)</t>
-  </si>
-  <si>
-    <t>(72, 205, 209)</t>
-  </si>
-  <si>
-    <t>(128, 252, 54)</t>
-  </si>
-  <si>
-    <t>(252, 185, 191)</t>
+    <t>(84, 157, 67)</t>
+  </si>
+  <si>
+    <t>(235, 199, 100)</t>
+  </si>
+  <si>
+    <t>(244, 115, 218)</t>
+  </si>
+  <si>
+    <t>(156, 248, 144)</t>
+  </si>
+  <si>
+    <t>(120, 201, 17)</t>
+  </si>
+  <si>
+    <t>(119, 67, 243)</t>
+  </si>
+  <si>
+    <t>(72, 220, 166)</t>
   </si>
 </sst>
 </file>
@@ -603,7 +603,7 @@
         <v>40</v>
       </c>
       <c r="M2">
-        <v>19.33</v>
+        <v>19.24</v>
       </c>
       <c r="P2" t="b">
         <v>1</v>
@@ -647,7 +647,7 @@
         <v>41</v>
       </c>
       <c r="M3">
-        <v>19.41</v>
+        <v>19.3</v>
       </c>
       <c r="P3" t="b">
         <v>0</v>
@@ -688,7 +688,7 @@
         <v>42</v>
       </c>
       <c r="M4">
-        <v>19.45</v>
+        <v>19.21</v>
       </c>
       <c r="P4" t="b">
         <v>0</v>
@@ -729,7 +729,7 @@
         <v>43</v>
       </c>
       <c r="M5">
-        <v>19.58</v>
+        <v>19.16</v>
       </c>
       <c r="P5" t="b">
         <v>0</v>
@@ -770,7 +770,7 @@
         <v>44</v>
       </c>
       <c r="M6">
-        <v>19.29</v>
+        <v>19.02</v>
       </c>
       <c r="P6" t="b">
         <v>0</v>
@@ -811,7 +811,7 @@
         <v>45</v>
       </c>
       <c r="M7">
-        <v>19.45</v>
+        <v>19.09</v>
       </c>
       <c r="P7" t="b">
         <v>0</v>
@@ -852,7 +852,7 @@
         <v>46</v>
       </c>
       <c r="M8">
-        <v>19.95</v>
+        <v>19.55</v>
       </c>
       <c r="P8" t="b">
         <v>0</v>
